--- a/MainTop/36.12.2025 имена/36.12.2025 имена.xlsx
+++ b/MainTop/36.12.2025 имена/36.12.2025 имена.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\36.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\36.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614980D4-4C33-41C5-9C8F-04D7A2EAC9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C8BFD8-9C96-419C-969A-545019C698A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,211 +33,211 @@
     <t>Штрихкод</t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>София</t>
-  </si>
-  <si>
-    <t>Артем</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t>Елизавета</t>
-  </si>
-  <si>
-    <t>Даниил</t>
-  </si>
-  <si>
-    <t>Ксения</t>
-  </si>
-  <si>
-    <t>Алиса</t>
-  </si>
-  <si>
-    <t>Марк</t>
-  </si>
-  <si>
-    <t>Василиса</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>Матвей</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Кира</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>Варвара</t>
-  </si>
-  <si>
-    <t>Вероника</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Илья</t>
-  </si>
-  <si>
-    <t>Егор</t>
-  </si>
-  <si>
-    <t>Ева</t>
-  </si>
-  <si>
-    <t>Лев</t>
-  </si>
-  <si>
-    <t>Арсений</t>
-  </si>
-  <si>
-    <t>Полина</t>
-  </si>
-  <si>
-    <t>Платон</t>
-  </si>
-  <si>
-    <t>Арина</t>
-  </si>
-  <si>
-    <t>Александра</t>
-  </si>
-  <si>
-    <t>Богдан</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>Савелий</t>
-  </si>
-  <si>
-    <t>Давид</t>
-  </si>
-  <si>
-    <t>Милана</t>
-  </si>
-  <si>
-    <t>Фёдор</t>
-  </si>
-  <si>
-    <t>Кристина</t>
-  </si>
-  <si>
-    <t>Ярослав</t>
-  </si>
-  <si>
-    <t>Аделина</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>Тимофей</t>
-  </si>
-  <si>
-    <t>Дарья</t>
-  </si>
-  <si>
-    <t>Мирослава</t>
-  </si>
-  <si>
-    <t>Ника</t>
-  </si>
-  <si>
-    <t>Вера</t>
-  </si>
-  <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>Тимур</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Константин</t>
-  </si>
-  <si>
-    <t>Захар</t>
-  </si>
-  <si>
-    <t>Маргарита</t>
-  </si>
-  <si>
-    <t>Кирилл</t>
-  </si>
-  <si>
-    <t>Леонид</t>
-  </si>
-  <si>
-    <t>Мира</t>
-  </si>
-  <si>
-    <t>Влад</t>
-  </si>
-  <si>
-    <t>Есения</t>
-  </si>
-  <si>
-    <t>Эмилия</t>
-  </si>
-  <si>
-    <t>Ясмина</t>
-  </si>
-  <si>
-    <t>Юрий</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
-    <t>Макар</t>
-  </si>
-  <si>
-    <t>Ульяна</t>
-  </si>
-  <si>
-    <t>Мирон</t>
-  </si>
-  <si>
-    <t>Артур</t>
-  </si>
-  <si>
-    <t>Семён</t>
-  </si>
-  <si>
-    <t>Вадим</t>
-  </si>
-  <si>
-    <t>Василий</t>
-  </si>
-  <si>
-    <t>Евгений</t>
+    <t>Термобирки София</t>
+  </si>
+  <si>
+    <t>Термобирки Артем</t>
+  </si>
+  <si>
+    <t>Термобирки Максим</t>
+  </si>
+  <si>
+    <t>Термобирки Михаил</t>
+  </si>
+  <si>
+    <t>Термобирки Анна</t>
+  </si>
+  <si>
+    <t>Термобирки Елизавета</t>
+  </si>
+  <si>
+    <t>Термобирки Даниил</t>
+  </si>
+  <si>
+    <t>Термобирки Ксения</t>
+  </si>
+  <si>
+    <t>Термобирки Алиса</t>
+  </si>
+  <si>
+    <t>Термобирки Марк</t>
+  </si>
+  <si>
+    <t>Термобирки Василиса</t>
+  </si>
+  <si>
+    <t>Термобирки Анастасия</t>
+  </si>
+  <si>
+    <t>Термобирки Матвей</t>
+  </si>
+  <si>
+    <t>Термобирки Дмитрий</t>
+  </si>
+  <si>
+    <t>Термобирки Кира</t>
+  </si>
+  <si>
+    <t>Термобирки Мария</t>
+  </si>
+  <si>
+    <t>Термобирки Варвара</t>
+  </si>
+  <si>
+    <t>Термобирки Вероника</t>
+  </si>
+  <si>
+    <t>Термобирки Иван</t>
+  </si>
+  <si>
+    <t>Термобирки Александр</t>
+  </si>
+  <si>
+    <t>Термобирки Илья</t>
+  </si>
+  <si>
+    <t>Термобирки Егор</t>
+  </si>
+  <si>
+    <t>Термобирки Ева</t>
+  </si>
+  <si>
+    <t>Термобирки Лев</t>
+  </si>
+  <si>
+    <t>Термобирки Арсений</t>
+  </si>
+  <si>
+    <t>Термобирки Полина</t>
+  </si>
+  <si>
+    <t>Термобирки Платон</t>
+  </si>
+  <si>
+    <t>Термобирки Арина</t>
+  </si>
+  <si>
+    <t>Термобирки Александра</t>
+  </si>
+  <si>
+    <t>Термобирки Богдан</t>
+  </si>
+  <si>
+    <t>Термобирки Виктория</t>
+  </si>
+  <si>
+    <t>Термобирки Владимир</t>
+  </si>
+  <si>
+    <t>Термобирки Савелий</t>
+  </si>
+  <si>
+    <t>Термобирки Давид</t>
+  </si>
+  <si>
+    <t>Термобирки Милана</t>
+  </si>
+  <si>
+    <t>Термобирки Фёдор</t>
+  </si>
+  <si>
+    <t>Термобирки Кристина</t>
+  </si>
+  <si>
+    <t>Термобирки Ярослав</t>
+  </si>
+  <si>
+    <t>Термобирки Аделина</t>
+  </si>
+  <si>
+    <t>Термобирки Роман</t>
+  </si>
+  <si>
+    <t>Термобирки Тимофей</t>
+  </si>
+  <si>
+    <t>Термобирки Дарья</t>
+  </si>
+  <si>
+    <t>Термобирки Мирослава</t>
+  </si>
+  <si>
+    <t>Термобирки Ника</t>
+  </si>
+  <si>
+    <t>Термобирки Вера</t>
+  </si>
+  <si>
+    <t>Термобирки Никита</t>
+  </si>
+  <si>
+    <t>Термобирки Тимур</t>
+  </si>
+  <si>
+    <t>Термобирки Алексей</t>
+  </si>
+  <si>
+    <t>Термобирки Константин</t>
+  </si>
+  <si>
+    <t>Термобирки Захар</t>
+  </si>
+  <si>
+    <t>Термобирки Маргарита</t>
+  </si>
+  <si>
+    <t>Термобирки Кирилл</t>
+  </si>
+  <si>
+    <t>Термобирки Леонид</t>
+  </si>
+  <si>
+    <t>Термобирки Мира</t>
+  </si>
+  <si>
+    <t>Термобирки Влад</t>
+  </si>
+  <si>
+    <t>Термобирки Есения</t>
+  </si>
+  <si>
+    <t>Термобирки Эмилия</t>
+  </si>
+  <si>
+    <t>Термобирки Ясмина</t>
+  </si>
+  <si>
+    <t>Термобирки Юрий</t>
+  </si>
+  <si>
+    <t>Термобирки Денис</t>
+  </si>
+  <si>
+    <t>Термобирки Макар</t>
+  </si>
+  <si>
+    <t>Термобирки Ульяна</t>
+  </si>
+  <si>
+    <t>Термобирки Мирон</t>
+  </si>
+  <si>
+    <t>Термобирки Артур</t>
+  </si>
+  <si>
+    <t>Термобирки Семён</t>
+  </si>
+  <si>
+    <t>Термобирки Вадим</t>
+  </si>
+  <si>
+    <t>Термобирки Василий</t>
+  </si>
+  <si>
+    <t>Термобирки Евгений</t>
+  </si>
+  <si>
+    <t>Num_Copies</t>
   </si>
 </sst>
 </file>
@@ -558,13 +558,14 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,12 +576,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -588,7 +589,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -596,7 +597,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -604,7 +605,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -612,7 +613,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -620,7 +621,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -628,7 +629,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -636,7 +637,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -644,7 +645,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -652,7 +653,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -660,7 +661,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -668,7 +669,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -676,7 +677,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -684,7 +685,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -692,7 +693,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -700,7 +701,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -708,7 +709,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -716,7 +717,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -724,7 +725,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -732,7 +733,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -740,7 +741,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -748,7 +749,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -756,7 +757,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -764,7 +765,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -772,7 +773,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -780,7 +781,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -788,7 +789,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -796,7 +797,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -804,7 +805,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -812,7 +813,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -820,7 +821,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -828,7 +829,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -836,7 +837,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -844,7 +845,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -860,7 +861,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -868,7 +869,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -876,7 +877,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -884,7 +885,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -892,7 +893,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -900,7 +901,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -908,7 +909,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -916,7 +917,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -924,7 +925,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -932,7 +933,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -940,7 +941,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -948,7 +949,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -956,7 +957,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -964,7 +965,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -972,7 +973,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -980,7 +981,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -988,7 +989,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -996,7 +997,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1004,7 +1005,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1012,7 +1013,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1020,7 +1021,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1028,7 +1029,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1036,7 +1037,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1044,7 +1045,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1052,7 +1053,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1060,7 +1061,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1068,7 +1069,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1076,7 +1077,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1084,7 +1085,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1092,7 +1093,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1100,7 +1101,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1108,7 +1109,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1116,7 +1117,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>1</v>
